--- a/Results/RQ1/VD.A&pValues.xlsx
+++ b/Results/RQ1/VD.A&pValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannali/Documents/GenAdapt/Results/RQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012EE08-CEE3-6A48-8007-8591AB42FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E3ADE-562E-6448-B5A0-7F5C99D0EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F6CA767B-1A43-7D48-9A94-14B01A7DA499}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19240" windowHeight="19920" xr2:uid="{F6CA767B-1A43-7D48-9A94-14B01A7DA499}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>packet loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,13 +239,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.4683333 (negligible)</t>
-  </si>
-  <si>
-    <t>0.6133333 (small)</t>
-  </si>
-  <si>
-    <t>0.3327778 (medium)</t>
+    <t>0.4377778 (negligible)</t>
+  </si>
+  <si>
+    <t>0 (large)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -352,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,7 +363,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,15 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +695,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -730,10 +725,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -753,8 +748,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
@@ -772,10 +767,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -795,8 +790,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
@@ -814,10 +809,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -837,8 +832,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
@@ -856,10 +851,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -879,8 +874,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
@@ -898,10 +893,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -921,8 +916,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
@@ -940,10 +935,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -963,8 +958,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
@@ -982,10 +977,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1005,8 +1000,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1024,10 +1019,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1047,8 +1042,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1066,10 +1061,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1089,8 +1084,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1108,10 +1103,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1131,8 +1126,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1150,75 +1145,85 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>63</v>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="9">
-        <v>0.13220000000000001</v>
+      <c r="D23" s="1">
+        <v>0.41189999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="9">
-        <v>2.6280000000000001E-2</v>
+      <c r="D25" s="3">
+        <v>3.0050000000000002E-11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>61</v>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="9">
-        <v>0.67849999999999999</v>
+      <c r="D27" s="3">
+        <v>3.0050000000000002E-11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
@@ -1228,20 +1233,10 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
